--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Gpr1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.94201864452239</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H2">
-        <v>1.94201864452239</v>
+        <v>6.092356</v>
       </c>
       <c r="I2">
-        <v>0.02825670201122734</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J2">
-        <v>0.02825670201122734</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.04830355579837</v>
+        <v>2.109819333333333</v>
       </c>
       <c r="N2">
-        <v>2.04830355579837</v>
+        <v>6.329458</v>
       </c>
       <c r="O2">
-        <v>0.4248012357020644</v>
+        <v>0.3538781574239624</v>
       </c>
       <c r="P2">
-        <v>0.4248012357020644</v>
+        <v>0.3766664379496617</v>
       </c>
       <c r="Q2">
-        <v>3.977843695001942</v>
+        <v>4.284590158116444</v>
       </c>
       <c r="R2">
-        <v>3.977843695001942</v>
+        <v>38.561311423048</v>
       </c>
       <c r="S2">
-        <v>0.01200348193123438</v>
+        <v>0.009796828006645051</v>
       </c>
       <c r="T2">
-        <v>0.01200348193123438</v>
+        <v>0.01218778189756798</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.94201864452239</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H3">
-        <v>1.94201864452239</v>
+        <v>6.092356</v>
       </c>
       <c r="I3">
-        <v>0.02825670201122734</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J3">
-        <v>0.02825670201122734</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.88056495850416</v>
+        <v>2.226167333333333</v>
       </c>
       <c r="N3">
-        <v>1.88056495850416</v>
+        <v>6.678502</v>
       </c>
       <c r="O3">
-        <v>0.3900136363719748</v>
+        <v>0.3733931060309189</v>
       </c>
       <c r="P3">
-        <v>0.3900136363719748</v>
+        <v>0.3974380680272611</v>
       </c>
       <c r="Q3">
-        <v>3.652092211650553</v>
+        <v>4.52086797007911</v>
       </c>
       <c r="R3">
-        <v>3.652092211650553</v>
+        <v>40.687811730712</v>
       </c>
       <c r="S3">
-        <v>0.01102049910327807</v>
+        <v>0.01033708343368974</v>
       </c>
       <c r="T3">
-        <v>0.01102049910327807</v>
+        <v>0.01285988875800606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.94201864452239</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H4">
-        <v>1.94201864452239</v>
+        <v>6.092356</v>
       </c>
       <c r="I4">
-        <v>0.02825670201122734</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J4">
-        <v>0.02825670201122734</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.892924323501158</v>
+        <v>0.3317663333333333</v>
       </c>
       <c r="N4">
-        <v>0.892924323501158</v>
+        <v>0.995299</v>
       </c>
       <c r="O4">
-        <v>0.1851851279259609</v>
+        <v>0.05564687785366651</v>
       </c>
       <c r="P4">
-        <v>0.1851851279259609</v>
+        <v>0.05923030518961661</v>
       </c>
       <c r="Q4">
-        <v>1.734075684386791</v>
+        <v>0.673746203827111</v>
       </c>
       <c r="R4">
-        <v>1.734075684386791</v>
+        <v>6.063715834444</v>
       </c>
       <c r="S4">
-        <v>0.005232720976714891</v>
+        <v>0.001540538402843626</v>
       </c>
       <c r="T4">
-        <v>0.005232720976714891</v>
+        <v>0.001916512778008404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35.7404231455547</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H5">
-        <v>35.7404231455547</v>
+        <v>6.092356</v>
       </c>
       <c r="I5">
-        <v>0.5200292435026971</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J5">
-        <v>0.5200292435026971</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>2.04830355579837</v>
+        <v>0.2121406666666667</v>
       </c>
       <c r="N5">
-        <v>2.04830355579837</v>
+        <v>0.636422</v>
       </c>
       <c r="O5">
-        <v>0.4248012357020644</v>
+        <v>0.03558216907420399</v>
       </c>
       <c r="P5">
-        <v>0.4248012357020644</v>
+        <v>0.03787351267245942</v>
       </c>
       <c r="Q5">
-        <v>73.20723581477806</v>
+        <v>0.4308121544702222</v>
       </c>
       <c r="R5">
-        <v>73.20723581477806</v>
+        <v>3.877309390232</v>
       </c>
       <c r="S5">
-        <v>0.2209090652411554</v>
+        <v>0.0009850633140539137</v>
       </c>
       <c r="T5">
-        <v>0.2209090652411554</v>
+        <v>0.001225471838317595</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.7404231455547</v>
+        <v>2.030785333333333</v>
       </c>
       <c r="H6">
-        <v>35.7404231455547</v>
+        <v>6.092356</v>
       </c>
       <c r="I6">
-        <v>0.5200292435026971</v>
+        <v>0.0276841839517888</v>
       </c>
       <c r="J6">
-        <v>0.5200292435026971</v>
+        <v>0.03235696273846616</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.88056495850416</v>
+        <v>1.0821</v>
       </c>
       <c r="N6">
-        <v>1.88056495850416</v>
+        <v>2.1642</v>
       </c>
       <c r="O6">
-        <v>0.3900136363719748</v>
+        <v>0.1814996896172483</v>
       </c>
       <c r="P6">
-        <v>0.3900136363719748</v>
+        <v>0.1287916761610012</v>
       </c>
       <c r="Q6">
-        <v>67.2121873696412</v>
+        <v>2.1975128092</v>
       </c>
       <c r="R6">
-        <v>67.2121873696412</v>
+        <v>13.1850768552</v>
       </c>
       <c r="S6">
-        <v>0.202818496278254</v>
+        <v>0.005024670794556474</v>
       </c>
       <c r="T6">
-        <v>0.202818496278254</v>
+        <v>0.004167307466566114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.7404231455547</v>
+        <v>39.49382433333334</v>
       </c>
       <c r="H7">
-        <v>35.7404231455547</v>
+        <v>118.481473</v>
       </c>
       <c r="I7">
-        <v>0.5200292435026971</v>
+        <v>0.5383898927460736</v>
       </c>
       <c r="J7">
-        <v>0.5200292435026971</v>
+        <v>0.6292640494185805</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.892924323501158</v>
+        <v>2.109819333333333</v>
       </c>
       <c r="N7">
-        <v>0.892924323501158</v>
+        <v>6.329458</v>
       </c>
       <c r="O7">
-        <v>0.1851851279259609</v>
+        <v>0.3538781574239624</v>
       </c>
       <c r="P7">
-        <v>0.1851851279259609</v>
+        <v>0.3766664379496617</v>
       </c>
       <c r="Q7">
-        <v>31.91349315888956</v>
+        <v>83.32483412573711</v>
       </c>
       <c r="R7">
-        <v>31.91349315888956</v>
+        <v>749.923507131634</v>
       </c>
       <c r="S7">
-        <v>0.09630168198328763</v>
+        <v>0.1905244232206653</v>
       </c>
       <c r="T7">
-        <v>0.09630168198328763</v>
+        <v>0.2370226480242766</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.0452761067518</v>
+        <v>39.49382433333334</v>
       </c>
       <c r="H8">
-        <v>31.0452761067518</v>
+        <v>118.481473</v>
       </c>
       <c r="I8">
-        <v>0.4517140544860756</v>
+        <v>0.5383898927460736</v>
       </c>
       <c r="J8">
-        <v>0.4517140544860756</v>
+        <v>0.6292640494185805</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.04830355579837</v>
+        <v>2.226167333333333</v>
       </c>
       <c r="N8">
-        <v>2.04830355579837</v>
+        <v>6.678502</v>
       </c>
       <c r="O8">
-        <v>0.4248012357020644</v>
+        <v>0.3733931060309189</v>
       </c>
       <c r="P8">
-        <v>0.4248012357020644</v>
+        <v>0.3974380680272611</v>
       </c>
       <c r="Q8">
-        <v>63.59014944020189</v>
+        <v>87.91986159927178</v>
       </c>
       <c r="R8">
-        <v>63.59014944020189</v>
+        <v>791.2787543934461</v>
       </c>
       <c r="S8">
-        <v>0.1918886885296745</v>
+        <v>0.2010310743081097</v>
       </c>
       <c r="T8">
-        <v>0.1918886885296745</v>
+        <v>0.2500934880799315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.0452761067518</v>
+        <v>39.49382433333334</v>
       </c>
       <c r="H9">
-        <v>31.0452761067518</v>
+        <v>118.481473</v>
       </c>
       <c r="I9">
-        <v>0.4517140544860756</v>
+        <v>0.5383898927460736</v>
       </c>
       <c r="J9">
-        <v>0.4517140544860756</v>
+        <v>0.6292640494185805</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.88056495850416</v>
+        <v>0.3317663333333333</v>
       </c>
       <c r="N9">
-        <v>1.88056495850416</v>
+        <v>0.995299</v>
       </c>
       <c r="O9">
-        <v>0.3900136363719748</v>
+        <v>0.05564687785366651</v>
       </c>
       <c r="P9">
-        <v>0.3900136363719748</v>
+        <v>0.05923030518961661</v>
       </c>
       <c r="Q9">
-        <v>58.38265837344389</v>
+        <v>13.10272128838078</v>
       </c>
       <c r="R9">
-        <v>58.38265837344389</v>
+        <v>117.924491595427</v>
       </c>
       <c r="S9">
-        <v>0.1761746409904427</v>
+        <v>0.02995971659928937</v>
       </c>
       <c r="T9">
-        <v>0.1761746409904427</v>
+        <v>0.03727150169191651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>39.49382433333334</v>
+      </c>
+      <c r="H10">
+        <v>118.481473</v>
+      </c>
+      <c r="I10">
+        <v>0.5383898927460736</v>
+      </c>
+      <c r="J10">
+        <v>0.6292640494185805</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2121406666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.636422</v>
+      </c>
+      <c r="O10">
+        <v>0.03558216907420399</v>
+      </c>
+      <c r="P10">
+        <v>0.03787351267245942</v>
+      </c>
+      <c r="Q10">
+        <v>8.378246223289556</v>
+      </c>
+      <c r="R10">
+        <v>75.40421600960602</v>
+      </c>
+      <c r="S10">
+        <v>0.01915708019153334</v>
+      </c>
+      <c r="T10">
+        <v>0.02383243994997774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>39.49382433333334</v>
+      </c>
+      <c r="H11">
+        <v>118.481473</v>
+      </c>
+      <c r="I11">
+        <v>0.5383898927460736</v>
+      </c>
+      <c r="J11">
+        <v>0.6292640494185805</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.0821</v>
+      </c>
+      <c r="N11">
+        <v>2.1642</v>
+      </c>
+      <c r="O11">
+        <v>0.1814996896172483</v>
+      </c>
+      <c r="P11">
+        <v>0.1287916761610012</v>
+      </c>
+      <c r="Q11">
+        <v>42.73626731110001</v>
+      </c>
+      <c r="R11">
+        <v>256.4176038666</v>
+      </c>
+      <c r="S11">
+        <v>0.09771759842647597</v>
+      </c>
+      <c r="T11">
+        <v>0.08104397167247804</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.150909</v>
+      </c>
+      <c r="I12">
+        <v>0.0006857433341026847</v>
+      </c>
+      <c r="J12">
+        <v>0.0008014890938578097</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.109819333333333</v>
+      </c>
+      <c r="N12">
+        <v>6.329458</v>
+      </c>
+      <c r="O12">
+        <v>0.3538781574239624</v>
+      </c>
+      <c r="P12">
+        <v>0.3766664379496617</v>
+      </c>
+      <c r="Q12">
+        <v>0.1061302419246666</v>
+      </c>
+      <c r="R12">
+        <v>0.9551721773219999</v>
+      </c>
+      <c r="S12">
+        <v>0.0002426695875380227</v>
+      </c>
+      <c r="T12">
+        <v>0.0003018940420389233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.150909</v>
+      </c>
+      <c r="I13">
+        <v>0.0006857433341026847</v>
+      </c>
+      <c r="J13">
+        <v>0.0008014890938578097</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.226167333333333</v>
+      </c>
+      <c r="N13">
+        <v>6.678502</v>
+      </c>
+      <c r="O13">
+        <v>0.3733931060309189</v>
+      </c>
+      <c r="P13">
+        <v>0.3974380680272611</v>
+      </c>
+      <c r="Q13">
+        <v>0.1119828953686666</v>
+      </c>
+      <c r="R13">
+        <v>1.007846058318</v>
+      </c>
+      <c r="S13">
+        <v>0.0002560518334605996</v>
+      </c>
+      <c r="T13">
+        <v>0.000318542277007768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.150909</v>
+      </c>
+      <c r="I14">
+        <v>0.0006857433341026847</v>
+      </c>
+      <c r="J14">
+        <v>0.0008014890938578097</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.3317663333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.995299</v>
+      </c>
+      <c r="O14">
+        <v>0.05564687785366651</v>
+      </c>
+      <c r="P14">
+        <v>0.05923030518961661</v>
+      </c>
+      <c r="Q14">
+        <v>0.01668884186566666</v>
+      </c>
+      <c r="R14">
+        <v>0.150199576791</v>
+      </c>
+      <c r="S14">
+        <v>3.815947555177812E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.747244363534734E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.150909</v>
+      </c>
+      <c r="I15">
+        <v>0.0006857433341026847</v>
+      </c>
+      <c r="J15">
+        <v>0.0008014890938578097</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.2121406666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.636422</v>
+      </c>
+      <c r="O15">
+        <v>0.03558216907420399</v>
+      </c>
+      <c r="P15">
+        <v>0.03787351267245942</v>
+      </c>
+      <c r="Q15">
+        <v>0.01067131195533333</v>
+      </c>
+      <c r="R15">
+        <v>0.096041807598</v>
+      </c>
+      <c r="S15">
+        <v>2.440023525555008E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.035520735306177E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05030299999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.150909</v>
+      </c>
+      <c r="I16">
+        <v>0.0006857433341026847</v>
+      </c>
+      <c r="J16">
+        <v>0.0008014890938578097</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.0821</v>
+      </c>
+      <c r="N16">
+        <v>2.1642</v>
+      </c>
+      <c r="O16">
+        <v>0.1814996896172483</v>
+      </c>
+      <c r="P16">
+        <v>0.1287916761610012</v>
+      </c>
+      <c r="Q16">
+        <v>0.0544328763</v>
+      </c>
+      <c r="R16">
+        <v>0.3265972578</v>
+      </c>
+      <c r="S16">
+        <v>0.0001244622022967343</v>
+      </c>
+      <c r="T16">
+        <v>0.0001032251238227093</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>31.7805215</v>
+      </c>
+      <c r="H17">
+        <v>63.561043</v>
+      </c>
+      <c r="I17">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J17">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.109819333333333</v>
+      </c>
+      <c r="N17">
+        <v>6.329458</v>
+      </c>
+      <c r="O17">
+        <v>0.3538781574239624</v>
+      </c>
+      <c r="P17">
+        <v>0.3766664379496617</v>
+      </c>
+      <c r="Q17">
+        <v>67.05115868411566</v>
+      </c>
+      <c r="R17">
+        <v>402.3069521046939</v>
+      </c>
+      <c r="S17">
+        <v>0.153314236609114</v>
+      </c>
+      <c r="T17">
+        <v>0.1271541139857782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>31.7805215</v>
+      </c>
+      <c r="H18">
+        <v>63.561043</v>
+      </c>
+      <c r="I18">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J18">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.226167333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.678502</v>
+      </c>
+      <c r="O18">
+        <v>0.3733931060309189</v>
+      </c>
+      <c r="P18">
+        <v>0.3974380680272611</v>
+      </c>
+      <c r="Q18">
+        <v>70.74875879959765</v>
+      </c>
+      <c r="R18">
+        <v>424.492552797586</v>
+      </c>
+      <c r="S18">
+        <v>0.1617688964556588</v>
+      </c>
+      <c r="T18">
+        <v>0.1341661489123157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>31.0452761067518</v>
-      </c>
-      <c r="H10">
-        <v>31.0452761067518</v>
-      </c>
-      <c r="I10">
-        <v>0.4517140544860756</v>
-      </c>
-      <c r="J10">
-        <v>0.4517140544860756</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.892924323501158</v>
-      </c>
-      <c r="N10">
-        <v>0.892924323501158</v>
-      </c>
-      <c r="O10">
-        <v>0.1851851279259609</v>
-      </c>
-      <c r="P10">
-        <v>0.1851851279259609</v>
-      </c>
-      <c r="Q10">
-        <v>27.72108216552802</v>
-      </c>
-      <c r="R10">
-        <v>27.72108216552802</v>
-      </c>
-      <c r="S10">
-        <v>0.08365072496595838</v>
-      </c>
-      <c r="T10">
-        <v>0.08365072496595838</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>31.7805215</v>
+      </c>
+      <c r="H19">
+        <v>63.561043</v>
+      </c>
+      <c r="I19">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J19">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.3317663333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.995299</v>
+      </c>
+      <c r="O19">
+        <v>0.05564687785366651</v>
+      </c>
+      <c r="P19">
+        <v>0.05923030518961661</v>
+      </c>
+      <c r="Q19">
+        <v>10.54370708947617</v>
+      </c>
+      <c r="R19">
+        <v>63.262242536857</v>
+      </c>
+      <c r="S19">
+        <v>0.02410846337598173</v>
+      </c>
+      <c r="T19">
+        <v>0.01999481827605636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>31.7805215</v>
+      </c>
+      <c r="H20">
+        <v>63.561043</v>
+      </c>
+      <c r="I20">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J20">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.2121406666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.636422</v>
+      </c>
+      <c r="O20">
+        <v>0.03558216907420399</v>
+      </c>
+      <c r="P20">
+        <v>0.03787351267245942</v>
+      </c>
+      <c r="Q20">
+        <v>6.741941018024333</v>
+      </c>
+      <c r="R20">
+        <v>40.451646108146</v>
+      </c>
+      <c r="S20">
+        <v>0.01541562533336118</v>
+      </c>
+      <c r="T20">
+        <v>0.01278524567681103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>31.7805215</v>
+      </c>
+      <c r="H21">
+        <v>63.561043</v>
+      </c>
+      <c r="I21">
+        <v>0.4332401799680348</v>
+      </c>
+      <c r="J21">
+        <v>0.3375774987490957</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.0821</v>
+      </c>
+      <c r="N21">
+        <v>2.1642</v>
+      </c>
+      <c r="O21">
+        <v>0.1814996896172483</v>
+      </c>
+      <c r="P21">
+        <v>0.1287916761610012</v>
+      </c>
+      <c r="Q21">
+        <v>34.38970231515</v>
+      </c>
+      <c r="R21">
+        <v>137.5588092606</v>
+      </c>
+      <c r="S21">
+        <v>0.07863295819391912</v>
+      </c>
+      <c r="T21">
+        <v>0.0434771718981343</v>
       </c>
     </row>
   </sheetData>
